--- a/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>VIHD</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,16 +887,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -899,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -919,8 +942,8 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -962,13 +989,16 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -991,13 +1021,16 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1056,19 +1093,22 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1094,10 +1134,13 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1111,7 +1154,7 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1120,13 +1163,16 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1142,20 +1188,23 @@
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1198,7 +1250,7 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1207,13 +1259,16 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1282,7 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1236,13 +1291,16 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,25 +1343,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-800</v>
       </c>
-      <c r="G29" s="3">
-        <v>-100</v>
-      </c>
       <c r="H29" s="3">
         <v>-100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1398,25 +1471,28 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1456,59 +1535,65 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1605,23 +1698,26 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1634,8 +1730,8 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1649,19 +1745,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1670,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1678,37 +1777,43 @@
       <c r="K45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>1100</v>
       </c>
       <c r="I46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1718,8 +1823,8 @@
       <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1750,23 +1858,26 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>700</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1779,8 +1890,8 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>1400</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>1400</v>
@@ -1792,10 +1903,13 @@
         <v>1400</v>
       </c>
       <c r="K49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,13 +1969,16 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -1867,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -1876,13 +1996,16 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>3500</v>
       </c>
       <c r="I54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J54" s="3">
         <v>3600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,57 +2105,63 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
       </c>
       <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2038,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2047,42 +2184,48 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2096,22 +2239,25 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2125,22 +2271,25 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2500</v>
       </c>
       <c r="J66" s="3">
         <v>2500</v>
       </c>
       <c r="K66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2604,25 +2799,28 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2649,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -2658,13 +2857,16 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,22 +3022,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -2832,13 +3049,16 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2946,14 +3176,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>VIHD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +921,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -922,8 +942,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -945,8 +968,8 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,13 +991,14 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -992,13 +1019,16 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1024,13 +1054,16 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1109,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1096,19 +1133,22 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1128,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1137,15 +1177,18 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1157,7 +1200,7 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
@@ -1166,13 +1209,16 @@
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1191,20 +1237,23 @@
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,13 +1284,16 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1253,7 +1305,7 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
@@ -1262,18 +1314,21 @@
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1285,7 +1340,7 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
@@ -1294,13 +1349,16 @@
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,25 +1407,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-800</v>
       </c>
-      <c r="H29" s="3">
-        <v>-100</v>
-      </c>
       <c r="I29" s="3">
         <v>-100</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,13 +1529,16 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1474,25 +1547,28 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,13 +1599,16 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -1538,62 +1617,68 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,13 +1774,16 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>600</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
@@ -1701,23 +1794,26 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1733,8 +1829,8 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1757,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1772,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1780,40 +1879,46 @@
       <c r="L45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>1100</v>
       </c>
       <c r="J46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1826,8 +1931,8 @@
       <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1861,28 +1969,31 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>700</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
@@ -1893,8 +2004,8 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>1400</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>1400</v>
@@ -1906,10 +2017,13 @@
         <v>1400</v>
       </c>
       <c r="L49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,16 +2089,19 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -1990,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -1999,13 +2119,16 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>3500</v>
       </c>
       <c r="J54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,77 +2226,84 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
       </c>
       <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2178,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -2187,45 +2324,51 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2242,22 +2385,25 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2274,22 +2420,25 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2500</v>
       </c>
       <c r="K66" s="3">
         <v>2500</v>
       </c>
       <c r="L66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,50 +2939,56 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -2802,25 +2997,28 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2851,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -2860,13 +3059,16 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,25 +3239,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -3052,13 +3269,16 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,26 +3394,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>VIHD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,8 +944,8 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -971,8 +994,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,16 +1018,17 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1022,13 +1049,16 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1057,13 +1087,16 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1146,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1136,19 +1173,22 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1180,19 +1220,22 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
@@ -1203,7 +1246,7 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1212,13 +1255,16 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1240,20 +1286,23 @@
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,17 +1336,20 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
@@ -1308,7 +1360,7 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
@@ -1317,22 +1369,25 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
@@ -1343,7 +1398,7 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
@@ -1352,13 +1407,16 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1410,25 +1471,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-800</v>
       </c>
-      <c r="I29" s="3">
-        <v>-100</v>
-      </c>
       <c r="J29" s="3">
         <v>-100</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,17 +1602,20 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
@@ -1550,25 +1623,28 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,17 +1678,20 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
@@ -1620,65 +1699,71 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,19 +1867,22 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1797,23 +1890,26 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1832,8 +1928,8 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1859,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1874,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1891,34 +1993,37 @@
         <v>1500</v>
       </c>
       <c r="E46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>1100</v>
       </c>
       <c r="K46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1934,8 +2039,8 @@
       <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1972,31 +2080,34 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>700</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
       </c>
       <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -2007,8 +2118,8 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>1400</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>1400</v>
@@ -2020,10 +2131,13 @@
         <v>1400</v>
       </c>
       <c r="M49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2103,8 +2223,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2113,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -2122,13 +2242,16 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2285,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2171,34 +2297,37 @@
         <v>1700</v>
       </c>
       <c r="E54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I54" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>3500</v>
       </c>
       <c r="K54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L54" s="3">
         <v>3600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,77 +2367,83 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
+        <v>700</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>400</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2318,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -2327,13 +2464,16 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2341,34 +2481,37 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2388,27 +2531,30 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2423,22 +2569,25 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2697,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2551,34 +2709,37 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2500</v>
       </c>
       <c r="L66" s="3">
         <v>2500</v>
       </c>
       <c r="M66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,57 +3131,63 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
@@ -3000,25 +3195,28 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3053,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3062,13 +3261,16 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,28 +3456,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3272,13 +3489,16 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,32 +3524,35 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,29 +3624,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,34 +3842,37 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>VIHD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,11 +986,11 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -997,17 +1042,23 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,22 +1070,24 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1052,13 +1105,19 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,14 +1125,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
@@ -1090,13 +1149,19 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,14 +1231,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
@@ -1176,19 +1249,25 @@
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1214,34 +1293,40 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
@@ -1249,22 +1334,28 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1289,20 +1380,26 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,23 +1436,29 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
@@ -1363,37 +1466,43 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
@@ -1401,22 +1510,28 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,16 +1568,22 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1474,25 +1595,31 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-100</v>
-      </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,46 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,34 +1965,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
-      </c>
       <c r="K41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
@@ -1830,10 +2003,16 @@
         <v>300</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,72 +2049,84 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1961,77 +2158,89 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1600</v>
       </c>
       <c r="N46" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>200</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -2042,11 +2251,11 @@
       <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2060,16 +2269,22 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -2083,23 +2298,29 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2109,11 +2330,11 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2121,11 +2342,11 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1400</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>1400</v>
@@ -2134,10 +2355,16 @@
         <v>1400</v>
       </c>
       <c r="N49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2226,32 +2465,38 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>3500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,51 +2617,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>900</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>900</v>
+      </c>
+      <c r="P57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2411,45 +2678,51 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2458,60 +2731,72 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2534,33 +2819,39 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -2572,22 +2863,28 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3255,22 +3652,28 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3527,21 +3968,21 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3549,10 +3990,16 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,35 +4080,41 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,35 +4406,41 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIHD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>VIHD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,8 +1012,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1071,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,25 +1098,26 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>12400</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1111,13 +1138,16 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,17 +1155,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
@@ -1155,13 +1185,16 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,17 +1268,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
@@ -1255,19 +1292,22 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1299,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1308,28 +1348,31 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-12400</v>
       </c>
       <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
@@ -1340,7 +1383,7 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
@@ -1349,13 +1392,16 @@
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1386,20 +1432,23 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,26 +1491,29 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-12400</v>
       </c>
       <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
@@ -1472,7 +1524,7 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
@@ -1481,31 +1533,34 @@
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-12400</v>
       </c>
       <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
@@ -1516,7 +1571,7 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
@@ -1525,13 +1580,16 @@
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,19 +1632,22 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>-400</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1601,25 +1662,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-800</v>
       </c>
-      <c r="L29" s="3">
-        <v>-100</v>
-      </c>
       <c r="M29" s="3">
         <v>-100</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,26 +1820,29 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-12800</v>
       </c>
       <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
@@ -1777,25 +1850,28 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,26 +1914,29 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-12800</v>
       </c>
       <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
@@ -1865,74 +1944,80 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,19 +2157,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2084,23 +2177,26 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2125,11 +2221,11 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2164,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2179,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2187,63 +2286,69 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1500</v>
       </c>
       <c r="G46" s="3">
         <v>1500</v>
       </c>
       <c r="H46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I46" s="3">
         <v>1700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>1100</v>
       </c>
       <c r="N46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -2257,8 +2362,8 @@
       <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>200</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2275,20 +2380,23 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2304,23 +2412,26 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>700</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
       <c r="P48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2336,8 +2447,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2348,8 +2459,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>1400</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>1400</v>
@@ -2361,10 +2472,13 @@
         <v>1400</v>
       </c>
       <c r="P49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2568,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
@@ -2471,8 +2591,8 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2481,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -2490,13 +2610,16 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1700</v>
       </c>
       <c r="G54" s="3">
         <v>1700</v>
       </c>
       <c r="H54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I54" s="3">
         <v>1900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L54" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>3500</v>
       </c>
       <c r="N54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O54" s="3">
         <v>3600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,61 +2749,65 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
       </c>
       <c r="O57" s="3">
+        <v>700</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2684,48 +2818,51 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
       </c>
       <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2737,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -2746,57 +2883,63 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2825,36 +2968,39 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2869,22 +3015,25 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2500</v>
       </c>
       <c r="O66" s="3">
         <v>2500</v>
       </c>
       <c r="P66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,75 +3706,81 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-12800</v>
       </c>
       <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
@@ -3593,25 +3788,28 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -3667,13 +3866,16 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,37 +4106,40 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3931,13 +4148,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4174,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -3974,32 +4195,35 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,38 +4313,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,17 +4567,20 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4342,34 +4588,37 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>6300</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
